--- a/source_data_old/Qual_11_data.xlsx
+++ b/source_data_old/Qual_11_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations.sharepoint.com/sites/DESA-STATS-DSSB/Shared Documents/SGSS/Socialstat/GENDER/Indicators/2021 data collection &amp; ArcGIS migration/Step3_NewData/_Formatted/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1065" documentId="8_{0AB00453-C6D6-434E-B19D-623166733F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A074C33F-ECAB-4AA9-8138-C96951DE84DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65EEBE-C52A-48A7-956F-304C1075BFDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="500" windowWidth="27440" windowHeight="15960" xr2:uid="{9507BD5C-08F8-F545-B3EA-30AC3C2A5CA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{9507BD5C-08F8-F545-B3EA-30AC3C2A5CA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -970,7 +970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1356,42 +1356,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E48B14-E5C8-A74B-A641-3A9A7EDA8A51}">
-  <dimension ref="A1:Y499"/>
+  <dimension ref="A1:Y314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="2" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="35.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="24.125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.5" style="2" customWidth="1"/>
-    <col min="19" max="19" width="13.375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="16" style="2" customWidth="1"/>
-    <col min="21" max="21" width="21.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="50.625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="25.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="63.375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="16.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="255.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="67" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.25" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" ht="15.75">
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>64</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>64</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>64</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>64</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>64</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>64</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.75">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>64</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>64</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15.75">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>64</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15.75">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>64</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>64</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>64</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.75">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>64</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>64</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.75">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>64</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15.75">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>64</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="5" customFormat="1" ht="15.75">
+    <row r="18" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>64</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="15.75">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>64</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15.75">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>64</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15.75">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>64</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15.75">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>64</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.75">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>64</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15.75">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>64</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15.75">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>64</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="15.75">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>64</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15.75">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>64</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15.75">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>64</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15.75">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>64</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15.75">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>64</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15.75">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>64</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="15.75">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>64</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="15.75">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>64</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="15.75">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>64</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15.75">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>64</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="15.75">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>64</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="15.75">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>64</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="15.75">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>64</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15.75">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>64</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="15.75">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>64</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="15.75">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>64</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="15.75">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>64</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15.75">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>64</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="15.75">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>64</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15.75">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>64</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="15.75">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>64</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15.75">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>64</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="15.75">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>64</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="15.75">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>64</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="15.75">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>64</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="15.75">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>64</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="15.75">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>64</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="15.75">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>64</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="15.75">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>64</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="15.75">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>64</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="15.75">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>64</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="15.75">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>64</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="15.75">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>64</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="15.75">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>64</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="15.75">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>64</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="15.75">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>64</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="15.75">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>64</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="15.75">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>64</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="15.75">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>64</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="15.75">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="15.75">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="15.75">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>64</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="15.75">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="15.75">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>64</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="15.75">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>64</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="15.75">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>64</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="15.75">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>64</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="15.75">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>64</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="15.75">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>64</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="15.75">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>64</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="15.75">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>64</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="15.75">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>64</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="15.75">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>64</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="15.75">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>64</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="15.75">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>64</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="15.75">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>64</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="15.75">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>64</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="15.75">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>64</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="15.75">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>64</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="15.75">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>64</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="15.75">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>64</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="15.75">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>64</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="15.75">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>64</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="15.75">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>64</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="15.75">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>64</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="15.75">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>64</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="15.75">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>64</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="15.75">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>64</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="15.75">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>64</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="15.75">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>64</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="15.75">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>64</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="15.75">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>64</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="15.75">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>64</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="15.75">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>64</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="15.75">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>64</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="15.75">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>64</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="15.75">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>64</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="15.75">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>64</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="15.75">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>64</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="15.75">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>64</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="15.75">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>64</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="15.75">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>64</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="15.75">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>64</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="15.75">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>64</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="15.75">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>64</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="15.75">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>64</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="15.75">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>64</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="15.75">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>64</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="15.75">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>64</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="15.75">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>64</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="15.75">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>64</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="15.75">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>64</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="15.75">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>64</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="15.75">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>64</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="15.75">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>64</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="15.75">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>64</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="15.75">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>64</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="15.75">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>64</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="15.75">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>64</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="15.75">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>64</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="15.75">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>64</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="15.75">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>64</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="15.75">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>64</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="15.75">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>64</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="15.75">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>64</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="15.75">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>64</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="15.75">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>64</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="15.75">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>64</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="15.75">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>64</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="15.75">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>64</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="15.75">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>64</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="137" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="137" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>64</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="138" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="138" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>64</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="139" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="139" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>64</v>
       </c>
@@ -12094,7 +12094,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="140" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="140" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>64</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="141" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="141" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>64</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="142" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="142" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>64</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="143" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="143" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>64</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="144" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="144" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>64</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="145" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="145" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>64</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="146" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="146" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>64</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="147" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="147" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>64</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="148" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="148" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>64</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="149" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="149" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>64</v>
       </c>
@@ -12864,7 +12864,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="150" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="150" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>64</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="151" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="151" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>64</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="152" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="152" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>64</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="153" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="153" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>64</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="154" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="154" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>64</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="155" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="155" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>64</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="156" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="156" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>64</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="157" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="157" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>64</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="158" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="158" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>64</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="159" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="159" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>64</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="160" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="160" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>64</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="161" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="161" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>64</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="162" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="162" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>64</v>
       </c>
@@ -13865,7 +13865,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="163" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="163" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>64</v>
       </c>
@@ -13942,7 +13942,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="164" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="164" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>64</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="165" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="165" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>64</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="166" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="166" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>64</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="167" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="167" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>64</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="168" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="168" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>64</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="169" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="169" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>64</v>
       </c>
@@ -14404,7 +14404,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="170" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="170" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>64</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="171" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="171" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>64</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="172" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="172" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>64</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="173" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="173" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>64</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="174" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="174" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>64</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="175" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="175" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>64</v>
       </c>
@@ -14866,7 +14866,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="176" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="176" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>64</v>
       </c>
@@ -14943,7 +14943,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="177" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="177" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>64</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="178" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="178" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>64</v>
       </c>
@@ -15097,7 +15097,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="179" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="179" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>64</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="180" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="180" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>64</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="181" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="181" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>64</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="182" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="182" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>64</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="183" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="183" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>64</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="184" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="184" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>64</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="185" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="185" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>64</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="186" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="186" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>64</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="187" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="187" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>64</v>
       </c>
@@ -15784,7 +15784,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="188" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="188" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>64</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="189" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="189" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>64</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="190" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="190" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>64</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="191" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="191" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>64</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="192" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="192" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>64</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="193" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="193" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>64</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="194" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="194" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>64</v>
       </c>
@@ -16323,7 +16323,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="195" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="195" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>64</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="196" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="196" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>64</v>
       </c>
@@ -16477,7 +16477,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="197" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="197" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>64</v>
       </c>
@@ -16554,7 +16554,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="198" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="198" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>64</v>
       </c>
@@ -16631,7 +16631,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="199" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="199" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>64</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="200" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="200" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>64</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="201" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="201" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>64</v>
       </c>
@@ -16862,7 +16862,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="202" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="202" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>64</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="203" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="203" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>64</v>
       </c>
@@ -17016,7 +17016,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="204" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="204" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>64</v>
       </c>
@@ -17093,7 +17093,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="205" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="205" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>64</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="206" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="206" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>64</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="207" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="207" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>64</v>
       </c>
@@ -17324,7 +17324,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="208" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="208" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>64</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="209" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="209" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>64</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="210" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="210" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>64</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="211" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="211" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>64</v>
       </c>
@@ -17632,7 +17632,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="212" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="212" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>64</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="213" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="213" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>64</v>
       </c>
@@ -17786,7 +17786,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="214" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="214" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>64</v>
       </c>
@@ -17863,7 +17863,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="215" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="215" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>64</v>
       </c>
@@ -17940,7 +17940,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="216" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="216" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>64</v>
       </c>
@@ -18017,7 +18017,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="217" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="217" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>64</v>
       </c>
@@ -18094,7 +18094,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="218" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="218" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>64</v>
       </c>
@@ -18171,7 +18171,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="219" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="219" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>64</v>
       </c>
@@ -18248,7 +18248,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="220" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="220" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>64</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="221" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="221" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>64</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="222" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="222" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>64</v>
       </c>
@@ -18479,7 +18479,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="223" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="223" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>64</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="224" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="224" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>64</v>
       </c>
@@ -18633,7 +18633,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="225" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="225" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>64</v>
       </c>
@@ -18710,7 +18710,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="226" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="226" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>64</v>
       </c>
@@ -18787,7 +18787,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="227" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="227" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>64</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="228" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="228" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>64</v>
       </c>
@@ -18941,7 +18941,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="229" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="229" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>64</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="230" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="230" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>64</v>
       </c>
@@ -19095,7 +19095,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="231" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="231" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>64</v>
       </c>
@@ -19172,7 +19172,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="232" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="232" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>64</v>
       </c>
@@ -19249,7 +19249,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="233" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="233" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>64</v>
       </c>
@@ -19326,7 +19326,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="234" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="234" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>64</v>
       </c>
@@ -19403,7 +19403,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="235" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="235" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>64</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="236" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="236" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>64</v>
       </c>
@@ -19557,7 +19557,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="237" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="237" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>64</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="238" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="238" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>64</v>
       </c>
@@ -19711,7 +19711,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="239" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="239" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>64</v>
       </c>
@@ -19788,7 +19788,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="240" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="240" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>64</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="241" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="241" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>64</v>
       </c>
@@ -19942,7 +19942,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="242" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="242" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>64</v>
       </c>
@@ -20019,7 +20019,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="243" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="243" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>64</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="244" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="244" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>64</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="245" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="245" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>64</v>
       </c>
@@ -20250,7 +20250,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="246" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="246" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>64</v>
       </c>
@@ -20327,7 +20327,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="247" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="247" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>64</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="248" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="248" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>64</v>
       </c>
@@ -20481,7 +20481,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="249" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="249" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>64</v>
       </c>
@@ -20558,7 +20558,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="250" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="250" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>64</v>
       </c>
@@ -20635,7 +20635,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="251" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="251" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>64</v>
       </c>
@@ -20712,7 +20712,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="252" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="252" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>64</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="253" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="253" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>64</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="254" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="254" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>64</v>
       </c>
@@ -20943,7 +20943,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="255" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="255" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>64</v>
       </c>
@@ -21020,7 +21020,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="256" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="256" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>64</v>
       </c>
@@ -21097,7 +21097,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="257" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="257" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>64</v>
       </c>
@@ -21174,7 +21174,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="258" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="258" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>64</v>
       </c>
@@ -21251,7 +21251,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="259" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="259" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>64</v>
       </c>
@@ -21328,7 +21328,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="260" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="260" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>64</v>
       </c>
@@ -21405,7 +21405,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="261" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="261" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>64</v>
       </c>
@@ -21482,7 +21482,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="262" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="262" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>64</v>
       </c>
@@ -21559,7 +21559,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="263" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="263" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>64</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="264" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="264" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>64</v>
       </c>
@@ -21713,7 +21713,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="265" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="265" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>64</v>
       </c>
@@ -21790,7 +21790,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="266" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="266" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>64</v>
       </c>
@@ -21867,7 +21867,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="267" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="267" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>64</v>
       </c>
@@ -21944,7 +21944,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="268" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="268" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>64</v>
       </c>
@@ -22021,7 +22021,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="269" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="269" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>64</v>
       </c>
@@ -22098,7 +22098,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="270" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="270" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>64</v>
       </c>
@@ -22175,7 +22175,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="271" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="271" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>64</v>
       </c>
@@ -22252,7 +22252,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="272" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="272" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>64</v>
       </c>
@@ -22329,7 +22329,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="273" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="273" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>64</v>
       </c>
@@ -22406,7 +22406,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="274" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="274" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>64</v>
       </c>
@@ -22483,7 +22483,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="275" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="275" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>64</v>
       </c>
@@ -22560,7 +22560,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="276" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="276" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>64</v>
       </c>
@@ -22637,7 +22637,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="277" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="277" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>64</v>
       </c>
@@ -22714,7 +22714,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="278" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="278" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>64</v>
       </c>
@@ -22791,7 +22791,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="279" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="279" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>64</v>
       </c>
@@ -22868,7 +22868,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="280" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="280" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>64</v>
       </c>
@@ -22945,7 +22945,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="281" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="281" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>64</v>
       </c>
@@ -23022,7 +23022,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="282" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="282" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>64</v>
       </c>
@@ -23099,7 +23099,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="283" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="283" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>64</v>
       </c>
@@ -23176,7 +23176,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="284" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="284" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>64</v>
       </c>
@@ -23253,7 +23253,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="285" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="285" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>64</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="286" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="286" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>64</v>
       </c>
@@ -23407,7 +23407,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="287" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="287" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>64</v>
       </c>
@@ -23484,7 +23484,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="288" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="288" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>64</v>
       </c>
@@ -23561,7 +23561,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="289" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="289" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>64</v>
       </c>
@@ -23638,7 +23638,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="290" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="290" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>64</v>
       </c>
@@ -23715,7 +23715,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="291" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="291" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>64</v>
       </c>
@@ -23792,7 +23792,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="292" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="292" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>64</v>
       </c>
@@ -23869,7 +23869,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="293" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="293" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>64</v>
       </c>
@@ -23946,7 +23946,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="294" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="294" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>64</v>
       </c>
@@ -24023,7 +24023,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="295" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="295" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>64</v>
       </c>
@@ -24100,7 +24100,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="296" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="296" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>64</v>
       </c>
@@ -24177,7 +24177,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="297" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="297" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>64</v>
       </c>
@@ -24254,7 +24254,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="298" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="298" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>64</v>
       </c>
@@ -24331,7 +24331,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="299" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="299" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>64</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="300" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="300" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>64</v>
       </c>
@@ -24485,7 +24485,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="301" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="301" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>64</v>
       </c>
@@ -24562,7 +24562,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="302" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="302" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>64</v>
       </c>
@@ -24639,7 +24639,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="303" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="303" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>64</v>
       </c>
@@ -24716,7 +24716,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="304" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="304" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>64</v>
       </c>
@@ -24793,7 +24793,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="305" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="305" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>64</v>
       </c>
@@ -24870,7 +24870,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="306" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="306" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>64</v>
       </c>
@@ -24947,7 +24947,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="307" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="307" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>64</v>
       </c>
@@ -25024,7 +25024,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="308" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="308" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>64</v>
       </c>
@@ -25101,7 +25101,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="309" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="309" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>64</v>
       </c>
@@ -25178,7 +25178,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="310" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="310" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>64</v>
       </c>
@@ -25255,7 +25255,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="311" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="311" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>64</v>
       </c>
@@ -25332,7 +25332,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="312" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="312" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>64</v>
       </c>
@@ -25409,7 +25409,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="313" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="313" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>64</v>
       </c>
@@ -25486,7 +25486,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="314" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="314" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>64</v>
       </c>
@@ -25563,59 +25563,6 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="315" spans="1:25" ht="15.75"/>
-    <row r="316" spans="1:25" ht="15.75"/>
-    <row r="317" spans="1:25" ht="15.75"/>
-    <row r="318" spans="1:25" ht="15.75"/>
-    <row r="319" spans="1:25" ht="15.75"/>
-    <row r="320" spans="1:25" ht="15.75"/>
-    <row r="321" ht="15.75"/>
-    <row r="322" ht="15.75"/>
-    <row r="323" ht="15.75"/>
-    <row r="324" ht="15.75"/>
-    <row r="325" ht="15.75"/>
-    <row r="326" ht="15.75"/>
-    <row r="327" ht="15.75"/>
-    <row r="328" ht="15.75"/>
-    <row r="329" ht="15.75"/>
-    <row r="330" ht="15.75"/>
-    <row r="331" ht="15.75"/>
-    <row r="333" ht="15.75"/>
-    <row r="335" ht="15.75"/>
-    <row r="337" ht="15.75"/>
-    <row r="338" ht="15.75"/>
-    <row r="339" ht="15.75"/>
-    <row r="340" ht="15.75"/>
-    <row r="341" ht="15.75"/>
-    <row r="343" ht="15.75"/>
-    <row r="345" ht="15.75"/>
-    <row r="353" ht="15.75"/>
-    <row r="355" ht="15.75"/>
-    <row r="357" ht="15.75"/>
-    <row r="361" ht="15.75"/>
-    <row r="365" ht="15.75"/>
-    <row r="369" ht="15.75"/>
-    <row r="371" ht="15.75"/>
-    <row r="373" ht="15.75"/>
-    <row r="389" ht="15.75"/>
-    <row r="393" ht="15.75"/>
-    <row r="408" ht="15.75"/>
-    <row r="409" ht="15.75"/>
-    <row r="415" ht="15.75"/>
-    <row r="419" ht="15.75"/>
-    <row r="424" ht="15.75"/>
-    <row r="426" ht="15.75"/>
-    <row r="435" ht="15.75"/>
-    <row r="442" ht="15.75"/>
-    <row r="444" ht="15.75"/>
-    <row r="459" ht="15.75"/>
-    <row r="466" ht="15.75"/>
-    <row r="474" ht="15.75"/>
-    <row r="475" ht="15.75"/>
-    <row r="477" ht="15.75"/>
-    <row r="485" ht="15.75"/>
-    <row r="496" ht="15.75"/>
-    <row r="499" ht="15.75"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="Y1" name="Range4_1"/>
@@ -25631,20 +25578,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25871,13 +25818,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43B3EB83-E502-4098-9EC3-B8970B523070}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A976581B-31A3-4010-B7C7-709052FF78A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A976581B-31A3-4010-B7C7-709052FF78A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43B3EB83-E502-4098-9EC3-B8970B523070}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC02342B-94FF-4373-9F11-5FA0D42BEBC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC02342B-94FF-4373-9F11-5FA0D42BEBC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+    <ds:schemaRef ds:uri="81cf108f-c583-47b3-8493-b6de3c823d22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>